--- a/Study 3/Shocks/GCAM/NDC_EI - 2010.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2010.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.008446320110155928</v>
+        <v>0.008446320110155926</v>
       </c>
     </row>
     <row r="5">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.2664771347933717</v>
+        <v>0.2664771347933716</v>
       </c>
     </row>
     <row r="9">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.3163251882942209</v>
+        <v>0.3163251882942208</v>
       </c>
     </row>
     <row r="13">
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.004575376114100147</v>
+        <v>0.004575376114100146</v>
       </c>
     </row>
     <row r="17">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.09371458768163794</v>
+        <v>0.09371458768163791</v>
       </c>
     </row>
     <row r="25">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.09296325626766616</v>
+        <v>0.09296325626766615</v>
       </c>
     </row>
     <row r="29">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.0006764801532517254</v>
+        <v>0.0006764801532517251</v>
       </c>
     </row>
     <row r="37">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.005577662618960678</v>
+        <v>0.005577662618960677</v>
       </c>
     </row>
     <row r="41">
